--- a/natmiOut/OldD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Aplnr</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.4640543903991</v>
+        <v>24.62119</v>
       </c>
       <c r="H2">
-        <v>24.4640543903991</v>
+        <v>49.24238</v>
       </c>
       <c r="I2">
-        <v>0.3836800392107768</v>
+        <v>0.3385836225326934</v>
       </c>
       <c r="J2">
-        <v>0.3836800392107768</v>
+        <v>0.2551111937816554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>188.137159979339</v>
+        <v>188.15226</v>
       </c>
       <c r="N2">
-        <v>188.137159979339</v>
+        <v>376.30452</v>
       </c>
       <c r="O2">
-        <v>0.7246857577809033</v>
+        <v>0.7229435608948707</v>
       </c>
       <c r="P2">
-        <v>0.7246857577809033</v>
+        <v>0.6352299168920266</v>
       </c>
       <c r="Q2">
-        <v>4602.597714589766</v>
+        <v>4632.5325423894</v>
       </c>
       <c r="R2">
-        <v>4602.597714589766</v>
+        <v>18530.1301695576</v>
       </c>
       <c r="S2">
-        <v>0.2780474599608684</v>
+        <v>0.2447768497344701</v>
       </c>
       <c r="T2">
-        <v>0.2780474599608684</v>
+        <v>0.1620542624241466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.4640543903991</v>
+        <v>24.62119</v>
       </c>
       <c r="H3">
-        <v>24.4640543903991</v>
+        <v>49.24238</v>
       </c>
       <c r="I3">
-        <v>0.3836800392107768</v>
+        <v>0.3385836225326934</v>
       </c>
       <c r="J3">
-        <v>0.3836800392107768</v>
+        <v>0.2551111937816554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0668028953855927</v>
+        <v>0.085256</v>
       </c>
       <c r="N3">
-        <v>0.0668028953855927</v>
+        <v>0.255768</v>
       </c>
       <c r="O3">
-        <v>0.0002573181548492764</v>
+        <v>0.0003275819074809576</v>
       </c>
       <c r="P3">
-        <v>0.0002573181548492764</v>
+        <v>0.0004317553384254854</v>
       </c>
       <c r="Q3">
-        <v>1.634269666149281</v>
+        <v>2.09910417464</v>
       </c>
       <c r="R3">
-        <v>1.634269666149281</v>
+        <v>12.59462504784</v>
       </c>
       <c r="S3">
-        <v>9.872783974221511E-05</v>
+        <v>0.0001109138689110722</v>
       </c>
       <c r="T3">
-        <v>9.872783974221511E-05</v>
+        <v>0.0001101456198073282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.4640543903991</v>
+        <v>24.62119</v>
       </c>
       <c r="H4">
-        <v>24.4640543903991</v>
+        <v>49.24238</v>
       </c>
       <c r="I4">
-        <v>0.3836800392107768</v>
+        <v>0.3385836225326934</v>
       </c>
       <c r="J4">
-        <v>0.3836800392107768</v>
+        <v>0.2551111937816554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.746161033672609</v>
+        <v>0.2289113333333334</v>
       </c>
       <c r="N4">
-        <v>0.746161033672609</v>
+        <v>0.6867340000000001</v>
       </c>
       <c r="O4">
-        <v>0.002874138602777885</v>
+        <v>0.0008795534767915766</v>
       </c>
       <c r="P4">
-        <v>0.002874138602777885</v>
+        <v>0.001159257884404176</v>
       </c>
       <c r="Q4">
-        <v>18.25412411176312</v>
+        <v>5.636069431153333</v>
       </c>
       <c r="R4">
-        <v>18.25412411176312</v>
+        <v>33.81641658692</v>
       </c>
       <c r="S4">
-        <v>0.001102749611811026</v>
+        <v>0.0002978024023833173</v>
       </c>
       <c r="T4">
-        <v>0.001102749611811026</v>
+        <v>0.0002957396627911456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +720,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.4640543903991</v>
+        <v>24.62119</v>
       </c>
       <c r="H5">
-        <v>24.4640543903991</v>
+        <v>49.24238</v>
       </c>
       <c r="I5">
-        <v>0.3836800392107768</v>
+        <v>0.3385836225326934</v>
       </c>
       <c r="J5">
-        <v>0.3836800392107768</v>
+        <v>0.2551111937816554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>70.4322074563287</v>
+        <v>1.064225333333333</v>
       </c>
       <c r="N5">
-        <v>70.4322074563287</v>
+        <v>3.192676</v>
       </c>
       <c r="O5">
-        <v>0.2712979064756619</v>
+        <v>0.004089107683716</v>
       </c>
       <c r="P5">
-        <v>0.2712979064756619</v>
+        <v>0.005389473690465284</v>
       </c>
       <c r="Q5">
-        <v>1723.057354047498</v>
+        <v>26.20249413481333</v>
       </c>
       <c r="R5">
-        <v>1723.057354047498</v>
+        <v>157.21496480888</v>
       </c>
       <c r="S5">
-        <v>0.1040915913943836</v>
+        <v>0.001384504892478834</v>
       </c>
       <c r="T5">
-        <v>0.1040915913943836</v>
+        <v>0.001374915067029422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.4640543903991</v>
+        <v>24.62119</v>
       </c>
       <c r="H6">
-        <v>24.4640543903991</v>
+        <v>49.24238</v>
       </c>
       <c r="I6">
-        <v>0.3836800392107768</v>
+        <v>0.3385836225326934</v>
       </c>
       <c r="J6">
-        <v>0.3836800392107768</v>
+        <v>0.2551111937816554</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.229725253363665</v>
+        <v>70.495514</v>
       </c>
       <c r="N6">
-        <v>0.229725253363665</v>
+        <v>211.486542</v>
       </c>
       <c r="O6">
-        <v>0.000884878985807695</v>
+        <v>0.2708672110463844</v>
       </c>
       <c r="P6">
-        <v>0.000884878985807695</v>
+        <v>0.3570049557162961</v>
       </c>
       <c r="Q6">
-        <v>5.620011093136914</v>
+        <v>1735.68344434166</v>
       </c>
       <c r="R6">
-        <v>5.620011093136914</v>
+        <v>10414.10066604996</v>
       </c>
       <c r="S6">
-        <v>0.0003395104039714888</v>
+        <v>0.09171120154141242</v>
       </c>
       <c r="T6">
-        <v>0.0003395104039714888</v>
+        <v>0.09107596043875131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.36231291699238</v>
+        <v>24.62119</v>
       </c>
       <c r="H7">
-        <v>6.36231291699238</v>
+        <v>49.24238</v>
       </c>
       <c r="I7">
-        <v>0.09978282546742837</v>
+        <v>0.3385836225326934</v>
       </c>
       <c r="J7">
-        <v>0.09978282546742837</v>
+        <v>0.2551111937816554</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>188.137159979339</v>
+        <v>0.232407</v>
       </c>
       <c r="N7">
-        <v>188.137159979339</v>
+        <v>0.4648139999999999</v>
       </c>
       <c r="O7">
-        <v>0.7246857577809033</v>
+        <v>0.0008929849907563915</v>
       </c>
       <c r="P7">
-        <v>0.7246857577809033</v>
+        <v>0.000784640478382376</v>
       </c>
       <c r="Q7">
-        <v>1196.98748310281</v>
+        <v>5.722136904329999</v>
       </c>
       <c r="R7">
-        <v>1196.98748310281</v>
+        <v>22.88854761732</v>
       </c>
       <c r="S7">
-        <v>0.07231119248738294</v>
+        <v>0.0003023500930376227</v>
       </c>
       <c r="T7">
-        <v>0.07231119248738294</v>
+        <v>0.0002001705691295371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.36231291699238</v>
+        <v>6.949744</v>
       </c>
       <c r="H8">
-        <v>6.36231291699238</v>
+        <v>20.849232</v>
       </c>
       <c r="I8">
-        <v>0.09978282546742837</v>
+        <v>0.09557090860331489</v>
       </c>
       <c r="J8">
-        <v>0.09978282546742837</v>
+        <v>0.1080141224886102</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0668028953855927</v>
+        <v>188.15226</v>
       </c>
       <c r="N8">
-        <v>0.0668028953855927</v>
+        <v>376.30452</v>
       </c>
       <c r="O8">
-        <v>0.0002573181548492764</v>
+        <v>0.7229435608948707</v>
       </c>
       <c r="P8">
-        <v>0.0002573181548492764</v>
+        <v>0.6352299168920266</v>
       </c>
       <c r="Q8">
-        <v>0.4250209242042471</v>
+        <v>1307.61004002144</v>
       </c>
       <c r="R8">
-        <v>0.4250209242042471</v>
+        <v>7845.660240128641</v>
       </c>
       <c r="S8">
-        <v>2.567593253492606E-05</v>
+        <v>0.0690923729836387</v>
       </c>
       <c r="T8">
-        <v>2.567593253492606E-05</v>
+        <v>0.06861380205160506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.36231291699238</v>
+        <v>6.949744</v>
       </c>
       <c r="H9">
-        <v>6.36231291699238</v>
+        <v>20.849232</v>
       </c>
       <c r="I9">
-        <v>0.09978282546742837</v>
+        <v>0.09557090860331489</v>
       </c>
       <c r="J9">
-        <v>0.09978282546742837</v>
+        <v>0.1080141224886102</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.746161033672609</v>
+        <v>0.085256</v>
       </c>
       <c r="N9">
-        <v>0.746161033672609</v>
+        <v>0.255768</v>
       </c>
       <c r="O9">
-        <v>0.002874138602777885</v>
+        <v>0.0003275819074809576</v>
       </c>
       <c r="P9">
-        <v>0.002874138602777885</v>
+        <v>0.0004317553384254854</v>
       </c>
       <c r="Q9">
-        <v>4.747309982691626</v>
+        <v>0.592507374464</v>
       </c>
       <c r="R9">
-        <v>4.747309982691626</v>
+        <v>5.332566370176</v>
       </c>
       <c r="S9">
-        <v>0.0002867896705701841</v>
+        <v>3.130730053996216E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002867896705701841</v>
+        <v>4.663567400980174E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.36231291699238</v>
+        <v>6.949744</v>
       </c>
       <c r="H10">
-        <v>6.36231291699238</v>
+        <v>20.849232</v>
       </c>
       <c r="I10">
-        <v>0.09978282546742837</v>
+        <v>0.09557090860331489</v>
       </c>
       <c r="J10">
-        <v>0.09978282546742837</v>
+        <v>0.1080141224886102</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>70.4322074563287</v>
+        <v>0.2289113333333334</v>
       </c>
       <c r="N10">
-        <v>70.4322074563287</v>
+        <v>0.6867340000000001</v>
       </c>
       <c r="O10">
-        <v>0.2712979064756619</v>
+        <v>0.0008795534767915766</v>
       </c>
       <c r="P10">
-        <v>0.2712979064756619</v>
+        <v>0.001159257884404176</v>
       </c>
       <c r="Q10">
-        <v>448.1117432716871</v>
+        <v>1.590875165365333</v>
       </c>
       <c r="R10">
-        <v>448.1117432716871</v>
+        <v>14.317876488288</v>
       </c>
       <c r="S10">
-        <v>0.02707087165153967</v>
+        <v>8.405972494217561E-05</v>
       </c>
       <c r="T10">
-        <v>0.02707087165153967</v>
+        <v>0.0001252162231219198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,122 +1092,122 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.36231291699238</v>
+        <v>6.949744</v>
       </c>
       <c r="H11">
-        <v>6.36231291699238</v>
+        <v>20.849232</v>
       </c>
       <c r="I11">
-        <v>0.09978282546742837</v>
+        <v>0.09557090860331489</v>
       </c>
       <c r="J11">
-        <v>0.09978282546742837</v>
+        <v>0.1080141224886102</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.229725253363665</v>
+        <v>1.064225333333333</v>
       </c>
       <c r="N11">
-        <v>0.229725253363665</v>
+        <v>3.192676</v>
       </c>
       <c r="O11">
-        <v>0.000884878985807695</v>
+        <v>0.004089107683716</v>
       </c>
       <c r="P11">
-        <v>0.000884878985807695</v>
+        <v>0.005389473690465284</v>
       </c>
       <c r="Q11">
-        <v>1.461583946834993</v>
+        <v>7.396093624981334</v>
       </c>
       <c r="R11">
-        <v>1.461583946834993</v>
+        <v>66.564842624832</v>
       </c>
       <c r="S11">
-        <v>8.829572540064425E-05</v>
+        <v>0.0003907997367095345</v>
       </c>
       <c r="T11">
-        <v>8.829572540064425E-05</v>
+        <v>0.0005821392713510594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.4334487778511</v>
+        <v>6.949744</v>
       </c>
       <c r="H12">
-        <v>32.4334487778511</v>
+        <v>20.849232</v>
       </c>
       <c r="I12">
-        <v>0.5086673983078739</v>
+        <v>0.09557090860331489</v>
       </c>
       <c r="J12">
-        <v>0.5086673983078739</v>
+        <v>0.1080141224886102</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>188.137159979339</v>
+        <v>70.495514</v>
       </c>
       <c r="N12">
-        <v>188.137159979339</v>
+        <v>211.486542</v>
       </c>
       <c r="O12">
-        <v>0.7246857577809033</v>
+        <v>0.2708672110463844</v>
       </c>
       <c r="P12">
-        <v>0.7246857577809033</v>
+        <v>0.3570049557162961</v>
       </c>
       <c r="Q12">
-        <v>6101.936941400269</v>
+        <v>489.925775448416</v>
       </c>
       <c r="R12">
-        <v>6101.936941400269</v>
+        <v>4409.331979035744</v>
       </c>
       <c r="S12">
-        <v>0.3686240190011821</v>
+        <v>0.02588702547054882</v>
       </c>
       <c r="T12">
-        <v>0.3686240190011821</v>
+        <v>0.03856157701578088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.4334487778511</v>
+        <v>6.949744</v>
       </c>
       <c r="H13">
-        <v>32.4334487778511</v>
+        <v>20.849232</v>
       </c>
       <c r="I13">
-        <v>0.5086673983078739</v>
+        <v>0.09557090860331489</v>
       </c>
       <c r="J13">
-        <v>0.5086673983078739</v>
+        <v>0.1080141224886102</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0668028953855927</v>
+        <v>0.232407</v>
       </c>
       <c r="N13">
-        <v>0.0668028953855927</v>
+        <v>0.4648139999999999</v>
       </c>
       <c r="O13">
-        <v>0.0002573181548492764</v>
+        <v>0.0008929849907563915</v>
       </c>
       <c r="P13">
-        <v>0.0002573181548492764</v>
+        <v>0.000784640478382376</v>
       </c>
       <c r="Q13">
-        <v>2.166648285700766</v>
+        <v>1.615169153808</v>
       </c>
       <c r="R13">
-        <v>2.166648285700766</v>
+        <v>9.691014922848</v>
       </c>
       <c r="S13">
-        <v>0.0001308893563645641</v>
+        <v>8.534338693571109E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001308893563645641</v>
+        <v>8.475225274151568E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.4334487778511</v>
+        <v>40.63706933333334</v>
       </c>
       <c r="H14">
-        <v>32.4334487778511</v>
+        <v>121.911208</v>
       </c>
       <c r="I14">
-        <v>0.5086673983078739</v>
+        <v>0.558829453165839</v>
       </c>
       <c r="J14">
-        <v>0.5086673983078739</v>
+        <v>0.6315883555637176</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.746161033672609</v>
+        <v>188.15226</v>
       </c>
       <c r="N14">
-        <v>0.746161033672609</v>
+        <v>376.30452</v>
       </c>
       <c r="O14">
-        <v>0.002874138602777885</v>
+        <v>0.7229435608948707</v>
       </c>
       <c r="P14">
-        <v>0.002874138602777885</v>
+        <v>0.6352299168920266</v>
       </c>
       <c r="Q14">
-        <v>24.20057566564899</v>
+        <v>7645.956434843361</v>
       </c>
       <c r="R14">
-        <v>24.20057566564899</v>
+        <v>45875.73860906017</v>
       </c>
       <c r="S14">
-        <v>0.001461980605451254</v>
+        <v>0.404002154804645</v>
       </c>
       <c r="T14">
-        <v>0.001461980605451254</v>
+        <v>0.401203818614712</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.4334487778511</v>
+        <v>40.63706933333334</v>
       </c>
       <c r="H15">
-        <v>32.4334487778511</v>
+        <v>121.911208</v>
       </c>
       <c r="I15">
-        <v>0.5086673983078739</v>
+        <v>0.558829453165839</v>
       </c>
       <c r="J15">
-        <v>0.5086673983078739</v>
+        <v>0.6315883555637176</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.4322074563287</v>
+        <v>0.085256</v>
       </c>
       <c r="N15">
-        <v>70.4322074563287</v>
+        <v>0.255768</v>
       </c>
       <c r="O15">
-        <v>0.2712979064756619</v>
+        <v>0.0003275819074809576</v>
       </c>
       <c r="P15">
-        <v>0.2712979064756619</v>
+        <v>0.0004317553384254854</v>
       </c>
       <c r="Q15">
-        <v>2284.359392845819</v>
+        <v>3.464553983082667</v>
       </c>
       <c r="R15">
-        <v>2284.359392845819</v>
+        <v>31.180985847744</v>
       </c>
       <c r="S15">
-        <v>0.1380004002533478</v>
+        <v>0.000183062418224606</v>
       </c>
       <c r="T15">
-        <v>0.1380004002533478</v>
+        <v>0.0002726916442020087</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,60 +1402,60 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.4334487778511</v>
+        <v>40.63706933333334</v>
       </c>
       <c r="H16">
-        <v>32.4334487778511</v>
+        <v>121.911208</v>
       </c>
       <c r="I16">
-        <v>0.5086673983078739</v>
+        <v>0.558829453165839</v>
       </c>
       <c r="J16">
-        <v>0.5086673983078739</v>
+        <v>0.6315883555637176</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.229725253363665</v>
+        <v>0.2289113333333334</v>
       </c>
       <c r="N16">
-        <v>0.229725253363665</v>
+        <v>0.6867340000000001</v>
       </c>
       <c r="O16">
-        <v>0.000884878985807695</v>
+        <v>0.0008795534767915766</v>
       </c>
       <c r="P16">
-        <v>0.000884878985807695</v>
+        <v>0.001159257884404176</v>
       </c>
       <c r="Q16">
-        <v>7.450782237949294</v>
+        <v>9.302285723852446</v>
       </c>
       <c r="R16">
-        <v>7.450782237949294</v>
+        <v>83.72057151467202</v>
       </c>
       <c r="S16">
-        <v>0.0004501090915281103</v>
+        <v>0.0004915203884655492</v>
       </c>
       <c r="T16">
-        <v>0.0004501090915281103</v>
+        <v>0.0007321737808851078</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1461,60 +1464,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5017870482465649</v>
+        <v>40.63706933333334</v>
       </c>
       <c r="H17">
-        <v>0.5017870482465649</v>
+        <v>121.911208</v>
       </c>
       <c r="I17">
-        <v>0.007869737013921067</v>
+        <v>0.558829453165839</v>
       </c>
       <c r="J17">
-        <v>0.007869737013921067</v>
+        <v>0.6315883555637176</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>188.137159979339</v>
+        <v>1.064225333333333</v>
       </c>
       <c r="N17">
-        <v>188.137159979339</v>
+        <v>3.192676</v>
       </c>
       <c r="O17">
-        <v>0.7246857577809033</v>
+        <v>0.004089107683716</v>
       </c>
       <c r="P17">
-        <v>0.7246857577809033</v>
+        <v>0.005389473690465284</v>
       </c>
       <c r="Q17">
-        <v>94.40479017152428</v>
+        <v>43.24699865695645</v>
       </c>
       <c r="R17">
-        <v>94.40479017152428</v>
+        <v>389.2229879126081</v>
       </c>
       <c r="S17">
-        <v>0.005703086331469811</v>
+        <v>0.002285113810827243</v>
       </c>
       <c r="T17">
-        <v>0.005703086331469811</v>
+        <v>0.00340392882551489</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1523,117 +1526,117 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5017870482465649</v>
+        <v>40.63706933333334</v>
       </c>
       <c r="H18">
-        <v>0.5017870482465649</v>
+        <v>121.911208</v>
       </c>
       <c r="I18">
-        <v>0.007869737013921067</v>
+        <v>0.558829453165839</v>
       </c>
       <c r="J18">
-        <v>0.007869737013921067</v>
+        <v>0.6315883555637176</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0668028953855927</v>
+        <v>70.495514</v>
       </c>
       <c r="N18">
-        <v>0.0668028953855927</v>
+        <v>211.486542</v>
       </c>
       <c r="O18">
-        <v>0.0002573181548492764</v>
+        <v>0.2708672110463844</v>
       </c>
       <c r="P18">
-        <v>0.0002573181548492764</v>
+        <v>0.3570049557162961</v>
       </c>
       <c r="Q18">
-        <v>0.03352082768986064</v>
+        <v>2864.731090106971</v>
       </c>
       <c r="R18">
-        <v>0.03352082768986064</v>
+        <v>25782.57981096274</v>
       </c>
       <c r="S18">
-        <v>2.025026207571224E-06</v>
+        <v>0.1513685754296069</v>
       </c>
       <c r="T18">
-        <v>2.025026207571224E-06</v>
+        <v>0.2254801729089533</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5017870482465649</v>
+        <v>40.63706933333334</v>
       </c>
       <c r="H19">
-        <v>0.5017870482465649</v>
+        <v>121.911208</v>
       </c>
       <c r="I19">
-        <v>0.007869737013921067</v>
+        <v>0.558829453165839</v>
       </c>
       <c r="J19">
-        <v>0.007869737013921067</v>
+        <v>0.6315883555637176</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.746161033672609</v>
+        <v>0.232407</v>
       </c>
       <c r="N19">
-        <v>0.746161033672609</v>
+        <v>0.4648139999999999</v>
       </c>
       <c r="O19">
-        <v>0.002874138602777885</v>
+        <v>0.0008929849907563915</v>
       </c>
       <c r="P19">
-        <v>0.002874138602777885</v>
+        <v>0.000784640478382376</v>
       </c>
       <c r="Q19">
-        <v>0.3744139426031842</v>
+        <v>9.444339372551999</v>
       </c>
       <c r="R19">
-        <v>0.3744139426031842</v>
+        <v>56.666036235312</v>
       </c>
       <c r="S19">
-        <v>2.26187149454205E-05</v>
+        <v>0.0004990263140696961</v>
       </c>
       <c r="T19">
-        <v>2.26187149454205E-05</v>
+        <v>0.0004955697894502536</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1650,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5017870482465649</v>
+        <v>0.510192</v>
       </c>
       <c r="H20">
-        <v>0.5017870482465649</v>
+        <v>1.020384</v>
       </c>
       <c r="I20">
-        <v>0.007869737013921067</v>
+        <v>0.007016015698152685</v>
       </c>
       <c r="J20">
-        <v>0.007869737013921067</v>
+        <v>0.005286328166016764</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>70.4322074563287</v>
+        <v>188.15226</v>
       </c>
       <c r="N20">
-        <v>70.4322074563287</v>
+        <v>376.30452</v>
       </c>
       <c r="O20">
-        <v>0.2712979064756619</v>
+        <v>0.7229435608948707</v>
       </c>
       <c r="P20">
-        <v>0.2712979064756619</v>
+        <v>0.6352299168920266</v>
       </c>
       <c r="Q20">
-        <v>35.34196948100088</v>
+        <v>95.99377783392001</v>
       </c>
       <c r="R20">
-        <v>35.34196948100088</v>
+        <v>383.97511133568</v>
       </c>
       <c r="S20">
-        <v>0.002135043176390812</v>
+        <v>0.005072183372116814</v>
       </c>
       <c r="T20">
-        <v>0.002135043176390812</v>
+        <v>0.003358033801562809</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1712,303 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.510192</v>
+      </c>
+      <c r="H21">
+        <v>1.020384</v>
+      </c>
+      <c r="I21">
+        <v>0.007016015698152685</v>
+      </c>
+      <c r="J21">
+        <v>0.005286328166016764</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.085256</v>
+      </c>
+      <c r="N21">
+        <v>0.255768</v>
+      </c>
+      <c r="O21">
+        <v>0.0003275819074809576</v>
+      </c>
+      <c r="P21">
+        <v>0.0004317553384254854</v>
+      </c>
+      <c r="Q21">
+        <v>0.043496929152</v>
+      </c>
+      <c r="R21">
+        <v>0.260981574912</v>
+      </c>
+      <c r="S21">
+        <v>2.298319805317199E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.282400406346743E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.5017870482465649</v>
-      </c>
-      <c r="H21">
-        <v>0.5017870482465649</v>
-      </c>
-      <c r="I21">
-        <v>0.007869737013921067</v>
-      </c>
-      <c r="J21">
-        <v>0.007869737013921067</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.229725253363665</v>
-      </c>
-      <c r="N21">
-        <v>0.229725253363665</v>
-      </c>
-      <c r="O21">
-        <v>0.000884878985807695</v>
-      </c>
-      <c r="P21">
-        <v>0.000884878985807695</v>
-      </c>
-      <c r="Q21">
-        <v>0.1152731567930477</v>
-      </c>
-      <c r="R21">
-        <v>0.1152731567930477</v>
-      </c>
-      <c r="S21">
-        <v>6.963764907451752E-06</v>
-      </c>
-      <c r="T21">
-        <v>6.963764907451752E-06</v>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.510192</v>
+      </c>
+      <c r="H22">
+        <v>1.020384</v>
+      </c>
+      <c r="I22">
+        <v>0.007016015698152685</v>
+      </c>
+      <c r="J22">
+        <v>0.005286328166016764</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2289113333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.6867340000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.0008795534767915766</v>
+      </c>
+      <c r="P22">
+        <v>0.001159257884404176</v>
+      </c>
+      <c r="Q22">
+        <v>0.116788730976</v>
+      </c>
+      <c r="R22">
+        <v>0.7007323858560001</v>
+      </c>
+      <c r="S22">
+        <v>6.170961000534474E-06</v>
+      </c>
+      <c r="T22">
+        <v>6.128217606002803E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.510192</v>
+      </c>
+      <c r="H23">
+        <v>1.020384</v>
+      </c>
+      <c r="I23">
+        <v>0.007016015698152685</v>
+      </c>
+      <c r="J23">
+        <v>0.005286328166016764</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.064225333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.192676</v>
+      </c>
+      <c r="O23">
+        <v>0.004089107683716</v>
+      </c>
+      <c r="P23">
+        <v>0.005389473690465284</v>
+      </c>
+      <c r="Q23">
+        <v>0.542959251264</v>
+      </c>
+      <c r="R23">
+        <v>3.257755507584</v>
+      </c>
+      <c r="S23">
+        <v>2.868924370038822E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.849052656991295E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.510192</v>
+      </c>
+      <c r="H24">
+        <v>1.020384</v>
+      </c>
+      <c r="I24">
+        <v>0.007016015698152685</v>
+      </c>
+      <c r="J24">
+        <v>0.005286328166016764</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>70.495514</v>
+      </c>
+      <c r="N24">
+        <v>211.486542</v>
+      </c>
+      <c r="O24">
+        <v>0.2708672110463844</v>
+      </c>
+      <c r="P24">
+        <v>0.3570049557162961</v>
+      </c>
+      <c r="Q24">
+        <v>35.966247278688</v>
+      </c>
+      <c r="R24">
+        <v>215.797483672128</v>
+      </c>
+      <c r="S24">
+        <v>0.001900408604816269</v>
+      </c>
+      <c r="T24">
+        <v>0.001887245352810624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.510192</v>
+      </c>
+      <c r="H25">
+        <v>1.020384</v>
+      </c>
+      <c r="I25">
+        <v>0.007016015698152685</v>
+      </c>
+      <c r="J25">
+        <v>0.005286328166016764</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.232407</v>
+      </c>
+      <c r="N25">
+        <v>0.4648139999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.0008929849907563915</v>
+      </c>
+      <c r="P25">
+        <v>0.000784640478382376</v>
+      </c>
+      <c r="Q25">
+        <v>0.118572192144</v>
+      </c>
+      <c r="R25">
+        <v>0.4742887685759999</v>
+      </c>
+      <c r="S25">
+        <v>6.265196713361573E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.147867061069622E-06</v>
       </c>
     </row>
   </sheetData>
